--- a/frontend/public/import-complaint.xlsx
+++ b/frontend/public/import-complaint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="18350" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <r>
-      <t>Complaint Number</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complaint Date</t>
     </r>
     <r>
       <rPr>
@@ -41,12 +49,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> *</t>
+      <t>*</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Complaint Date</t>
+      <t xml:space="preserve">Customer Name </t>
     </r>
     <r>
       <rPr>
@@ -62,7 +70,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Name </t>
+      <t xml:space="preserve">Client ID </t>
     </r>
     <r>
       <rPr>
@@ -77,14 +85,56 @@
     </r>
   </si>
   <si>
-    <t>Client ID</t>
+    <r>
+      <t xml:space="preserve">Account ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
-    <t>Account ID</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Customer Phone Number</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>Customer Phone Number</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MFI</t>
     </r>
     <r>
       <rPr>
@@ -100,7 +150,15 @@
   </si>
   <si>
     <r>
-      <t>MFI</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Branch</t>
     </r>
     <r>
       <rPr>
@@ -116,7 +174,15 @@
   </si>
   <si>
     <r>
-      <t>Branch</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>State</t>
     </r>
     <r>
       <rPr>
@@ -132,22 +198,14 @@
   </si>
   <si>
     <r>
-      <t>State</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Vendor Name</t>
     </r>
     <r>
@@ -793,9 +851,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,53 +1173,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="18.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="10.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="24.2727272727273" customWidth="1"/>
-    <col min="10" max="10" width="13.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="10.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="24.2727272727273" customWidth="1"/>
+    <col min="9" max="9" width="13.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/import-complaint.xlsx
+++ b/frontend/public/import-complaint.xlsx
@@ -54,7 +54,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Customer Name </t>
+      <t>Customer Name</t>
     </r>
     <r>
       <rPr>
@@ -70,7 +70,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Client ID </t>
+      <t>Client ID</t>
     </r>
     <r>
       <rPr>
@@ -86,7 +86,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Account ID </t>
+      <t>Account ID</t>
     </r>
     <r>
       <rPr>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
